--- a/Curr/TeamStatsOpp_Curr.xlsx
+++ b/Curr/TeamStatsOpp_Curr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/My codes/NBA/curr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/My codes/NBA_pred/Curr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BB9570-EEF4-E349-B420-1C8ED44199CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BA74AC-4575-2742-8A6C-1F449E883F9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16280" xr2:uid="{43E9725A-39AF-A84C-BB3F-93CCBEAAC68A}"/>
   </bookViews>
@@ -563,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53CAA847-4FA6-6D46-8CEE-3BA0B709465A}">
-  <dimension ref="A1:AE51"/>
+  <dimension ref="A1:AE47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A25" sqref="A25:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -674,13 +674,13 @@
         <v>38.700000000000003</v>
       </c>
       <c r="C2" s="1">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1">
         <v>37.9</v>
       </c>
       <c r="E2" s="1">
-        <v>39.4</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1">
         <v>38.299999999999997</v>
@@ -692,7 +692,7 @@
         <v>38.9</v>
       </c>
       <c r="I2" s="1">
-        <v>40.299999999999997</v>
+        <v>40</v>
       </c>
       <c r="J2" s="1">
         <v>41.4</v>
@@ -722,7 +722,7 @@
         <v>41.6</v>
       </c>
       <c r="S2" s="1">
-        <v>42.9</v>
+        <v>37</v>
       </c>
       <c r="T2" s="1">
         <v>39.9</v>
@@ -769,13 +769,13 @@
         <v>93.8</v>
       </c>
       <c r="C3" s="1">
-        <v>87.7</v>
+        <v>74</v>
       </c>
       <c r="D3" s="1">
         <v>88.5</v>
       </c>
       <c r="E3" s="1">
-        <v>90.3</v>
+        <v>82</v>
       </c>
       <c r="F3" s="1">
         <v>86.8</v>
@@ -787,7 +787,7 @@
         <v>87</v>
       </c>
       <c r="I3" s="1">
-        <v>89.3</v>
+        <v>94</v>
       </c>
       <c r="J3" s="1">
         <v>91.2</v>
@@ -817,7 +817,7 @@
         <v>92.1</v>
       </c>
       <c r="S3" s="1">
-        <v>92.2</v>
+        <v>84</v>
       </c>
       <c r="T3" s="1">
         <v>85.3</v>
@@ -864,13 +864,13 @@
         <v>41.3</v>
       </c>
       <c r="C4" s="1">
-        <v>44.4</v>
+        <v>43.2</v>
       </c>
       <c r="D4" s="1">
         <v>42.9</v>
       </c>
       <c r="E4" s="1">
-        <v>43.6</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1">
         <v>44.2</v>
@@ -882,7 +882,7 @@
         <v>44.7</v>
       </c>
       <c r="I4" s="1">
-        <v>45.2</v>
+        <v>42.6</v>
       </c>
       <c r="J4" s="1">
         <v>45.4</v>
@@ -912,7 +912,7 @@
         <v>45.1</v>
       </c>
       <c r="S4" s="1">
-        <v>46.5</v>
+        <v>44</v>
       </c>
       <c r="T4" s="1">
         <v>46.8</v>
@@ -959,13 +959,13 @@
         <v>13.7</v>
       </c>
       <c r="C5" s="1">
-        <v>11.3</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1">
         <v>13</v>
       </c>
       <c r="E5" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1">
         <v>11.8</v>
@@ -977,7 +977,7 @@
         <v>13.1</v>
       </c>
       <c r="I5" s="1">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="J5" s="1">
         <v>11.8</v>
@@ -1007,7 +1007,7 @@
         <v>13.3</v>
       </c>
       <c r="S5" s="1">
-        <v>12.1</v>
+        <v>8</v>
       </c>
       <c r="T5" s="1">
         <v>12.3</v>
@@ -1054,13 +1054,13 @@
         <v>38.6</v>
       </c>
       <c r="C6" s="1">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1">
         <v>38.5</v>
       </c>
       <c r="E6" s="1">
-        <v>35.200000000000003</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1">
         <v>34.5</v>
@@ -1072,7 +1072,7 @@
         <v>38</v>
       </c>
       <c r="I6" s="1">
-        <v>31.6</v>
+        <v>31</v>
       </c>
       <c r="J6" s="1">
         <v>34.299999999999997</v>
@@ -1102,7 +1102,7 @@
         <v>35.200000000000003</v>
       </c>
       <c r="S6" s="1">
-        <v>33.9</v>
+        <v>34</v>
       </c>
       <c r="T6" s="1">
         <v>34.6</v>
@@ -1149,13 +1149,13 @@
         <v>35.6</v>
       </c>
       <c r="C7" s="1">
-        <v>34.200000000000003</v>
+        <v>44.4</v>
       </c>
       <c r="D7" s="1">
         <v>33.700000000000003</v>
       </c>
       <c r="E7" s="1">
-        <v>34.1</v>
+        <v>30.6</v>
       </c>
       <c r="F7" s="1">
         <v>34.200000000000003</v>
@@ -1167,7 +1167,7 @@
         <v>34.6</v>
       </c>
       <c r="I7" s="1">
-        <v>35.1</v>
+        <v>35.5</v>
       </c>
       <c r="J7" s="1">
         <v>34.5</v>
@@ -1197,7 +1197,7 @@
         <v>37.700000000000003</v>
       </c>
       <c r="S7" s="1">
-        <v>35.5</v>
+        <v>23.5</v>
       </c>
       <c r="T7" s="1">
         <v>35.5</v>
@@ -1244,13 +1244,13 @@
         <v>16.2</v>
       </c>
       <c r="C8" s="1">
-        <v>17.7</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1">
         <v>17.7</v>
       </c>
       <c r="E8" s="1">
-        <v>18.899999999999999</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1">
         <v>18.399999999999999</v>
@@ -1262,7 +1262,7 @@
         <v>18.100000000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>16.100000000000001</v>
+        <v>13</v>
       </c>
       <c r="J8" s="1">
         <v>15.6</v>
@@ -1292,7 +1292,7 @@
         <v>18.8</v>
       </c>
       <c r="S8" s="1">
-        <v>19.100000000000001</v>
+        <v>24</v>
       </c>
       <c r="T8" s="1">
         <v>18.899999999999999</v>
@@ -1339,13 +1339,13 @@
         <v>20.6</v>
       </c>
       <c r="C9" s="1">
-        <v>22.8</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1">
         <v>23</v>
       </c>
       <c r="E9" s="1">
-        <v>24.8</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1">
         <v>24.2</v>
@@ -1357,7 +1357,7 @@
         <v>23.3</v>
       </c>
       <c r="I9" s="1">
-        <v>20.9</v>
+        <v>18</v>
       </c>
       <c r="J9" s="1">
         <v>20.7</v>
@@ -1387,7 +1387,7 @@
         <v>24.3</v>
       </c>
       <c r="S9" s="1">
-        <v>24.4</v>
+        <v>28</v>
       </c>
       <c r="T9" s="1">
         <v>23.8</v>
@@ -1434,13 +1434,13 @@
         <v>78.400000000000006</v>
       </c>
       <c r="C10" s="1">
-        <v>77.400000000000006</v>
+        <v>75</v>
       </c>
       <c r="D10" s="1">
         <v>76.8</v>
       </c>
       <c r="E10" s="1">
-        <v>76.2</v>
+        <v>75.7</v>
       </c>
       <c r="F10" s="1">
         <v>76.099999999999994</v>
@@ -1452,7 +1452,7 @@
         <v>77.599999999999994</v>
       </c>
       <c r="I10" s="1">
-        <v>76.900000000000006</v>
+        <v>72.2</v>
       </c>
       <c r="J10" s="1">
         <v>75.7</v>
@@ -1482,7 +1482,7 @@
         <v>77.3</v>
       </c>
       <c r="S10" s="1">
-        <v>78.2</v>
+        <v>85.7</v>
       </c>
       <c r="T10" s="1">
         <v>79.3</v>
@@ -1529,13 +1529,13 @@
         <v>9.4</v>
       </c>
       <c r="C11" s="1">
-        <v>9.8000000000000007</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1">
         <v>11.2</v>
       </c>
       <c r="E11" s="1">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="F11" s="1">
         <v>10.199999999999999</v>
@@ -1547,7 +1547,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I11" s="1">
-        <v>9.6</v>
+        <v>15</v>
       </c>
       <c r="J11" s="1">
         <v>10.6</v>
@@ -1577,7 +1577,7 @@
         <v>11.8</v>
       </c>
       <c r="S11" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T11" s="1">
         <v>9</v>
@@ -1624,13 +1624,13 @@
         <v>36.299999999999997</v>
       </c>
       <c r="C12" s="1">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1">
         <v>35.1</v>
       </c>
       <c r="E12" s="1">
-        <v>34.6</v>
+        <v>34</v>
       </c>
       <c r="F12" s="1">
         <v>34</v>
@@ -1642,7 +1642,7 @@
         <v>33</v>
       </c>
       <c r="I12" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J12" s="1">
         <v>34.700000000000003</v>
@@ -1672,7 +1672,7 @@
         <v>35.700000000000003</v>
       </c>
       <c r="S12" s="1">
-        <v>35.1</v>
+        <v>31</v>
       </c>
       <c r="T12" s="1">
         <v>34.5</v>
@@ -1719,13 +1719,13 @@
         <v>45.7</v>
       </c>
       <c r="C13" s="1">
-        <v>42.3</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1">
         <v>46.3</v>
       </c>
       <c r="E13" s="1">
-        <v>45.5</v>
+        <v>45</v>
       </c>
       <c r="F13" s="1">
         <v>44.3</v>
@@ -1737,7 +1737,7 @@
         <v>42.2</v>
       </c>
       <c r="I13" s="1">
-        <v>42.6</v>
+        <v>45</v>
       </c>
       <c r="J13" s="1">
         <v>45.3</v>
@@ -1767,7 +1767,7 @@
         <v>47.5</v>
       </c>
       <c r="S13" s="1">
-        <v>45.1</v>
+        <v>43</v>
       </c>
       <c r="T13" s="1">
         <v>43.5</v>
@@ -1814,13 +1814,13 @@
         <v>23.8</v>
       </c>
       <c r="C14" s="1">
-        <v>23.2</v>
+        <v>17</v>
       </c>
       <c r="D14" s="1">
         <v>25.6</v>
       </c>
       <c r="E14" s="1">
-        <v>23.6</v>
+        <v>21</v>
       </c>
       <c r="F14" s="1">
         <v>22.2</v>
@@ -1832,7 +1832,7 @@
         <v>24.7</v>
       </c>
       <c r="I14" s="1">
-        <v>21.2</v>
+        <v>22</v>
       </c>
       <c r="J14" s="1">
         <v>23.8</v>
@@ -1862,7 +1862,7 @@
         <v>24.7</v>
       </c>
       <c r="S14" s="1">
-        <v>24.6</v>
+        <v>17</v>
       </c>
       <c r="T14" s="1">
         <v>24.5</v>
@@ -1909,13 +1909,13 @@
         <v>14.3</v>
       </c>
       <c r="C15" s="1">
-        <v>15.7</v>
+        <v>22</v>
       </c>
       <c r="D15" s="1">
         <v>16.8</v>
       </c>
       <c r="E15" s="1">
-        <v>14.2</v>
+        <v>16</v>
       </c>
       <c r="F15" s="1">
         <v>15.3</v>
@@ -1927,7 +1927,7 @@
         <v>13.7</v>
       </c>
       <c r="I15" s="1">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J15" s="1">
         <v>12.2</v>
@@ -1957,7 +1957,7 @@
         <v>12.7</v>
       </c>
       <c r="S15" s="1">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="T15" s="1">
         <v>15.1</v>
@@ -2004,13 +2004,13 @@
         <v>7.4</v>
       </c>
       <c r="C16" s="1">
-        <v>8.1999999999999993</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1">
         <v>7</v>
       </c>
       <c r="E16" s="1">
-        <v>7.9</v>
+        <v>6</v>
       </c>
       <c r="F16" s="1">
         <v>7</v>
@@ -2022,7 +2022,7 @@
         <v>7.5</v>
       </c>
       <c r="I16" s="1">
-        <v>7.8</v>
+        <v>12</v>
       </c>
       <c r="J16" s="1">
         <v>7.1</v>
@@ -2052,7 +2052,7 @@
         <v>6.8</v>
       </c>
       <c r="S16" s="1">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="T16" s="1">
         <v>7.8</v>
@@ -2099,13 +2099,13 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C17" s="1">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="D17" s="1">
         <v>5.3</v>
       </c>
       <c r="E17" s="1">
-        <v>4.9000000000000004</v>
+        <v>3</v>
       </c>
       <c r="F17" s="1">
         <v>5.6</v>
@@ -2117,7 +2117,7 @@
         <v>4.2</v>
       </c>
       <c r="I17" s="1">
-        <v>4.5999999999999996</v>
+        <v>2</v>
       </c>
       <c r="J17" s="1">
         <v>4</v>
@@ -2147,7 +2147,7 @@
         <v>5</v>
       </c>
       <c r="S17" s="1">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="T17" s="1">
         <v>4.3</v>
@@ -2194,7 +2194,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="1">
-        <v>6.8</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1">
         <v>4.9000000000000004</v>
@@ -2212,7 +2212,7 @@
         <v>4.5</v>
       </c>
       <c r="I18" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J18" s="1">
         <v>5</v>
@@ -2242,7 +2242,7 @@
         <v>6.2</v>
       </c>
       <c r="S18" s="1">
-        <v>5.0999999999999996</v>
+        <v>2</v>
       </c>
       <c r="T18" s="1">
         <v>4.2</v>
@@ -2289,13 +2289,13 @@
         <v>21.3</v>
       </c>
       <c r="C19" s="1">
-        <v>21.4</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1">
         <v>20</v>
       </c>
       <c r="E19" s="1">
-        <v>22.8</v>
+        <v>27</v>
       </c>
       <c r="F19" s="1">
         <v>20.6</v>
@@ -2307,7 +2307,7 @@
         <v>21.5</v>
       </c>
       <c r="I19" s="1">
-        <v>20.6</v>
+        <v>25</v>
       </c>
       <c r="J19" s="1">
         <v>20.8</v>
@@ -2337,7 +2337,7 @@
         <v>19.7</v>
       </c>
       <c r="S19" s="1">
-        <v>20.6</v>
+        <v>23</v>
       </c>
       <c r="T19" s="1">
         <v>19.3</v>
@@ -2384,13 +2384,13 @@
         <v>19.2</v>
       </c>
       <c r="C20" s="1">
-        <v>20.6</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1">
         <v>21.5</v>
       </c>
       <c r="E20" s="1">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F20" s="1">
         <v>21.4</v>
@@ -2402,7 +2402,7 @@
         <v>20.399999999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J20" s="1">
         <v>19</v>
@@ -2432,7 +2432,7 @@
         <v>21.4</v>
       </c>
       <c r="S20" s="1">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="T20" s="1">
         <v>21.9</v>
@@ -2479,13 +2479,13 @@
         <v>107.4</v>
       </c>
       <c r="C21" s="1">
-        <v>106.9</v>
+        <v>101</v>
       </c>
       <c r="D21" s="1">
         <v>106.5</v>
       </c>
       <c r="E21" s="1">
-        <v>109.7</v>
+        <v>103</v>
       </c>
       <c r="F21" s="1">
         <v>106.8</v>
@@ -2497,7 +2497,7 @@
         <v>108.9</v>
       </c>
       <c r="I21" s="1">
-        <v>107.9</v>
+        <v>104</v>
       </c>
       <c r="J21" s="1">
         <v>110.3</v>
@@ -2527,7 +2527,7 @@
         <v>115.2</v>
       </c>
       <c r="S21" s="1">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="T21" s="1">
         <v>110.9</v>
@@ -2600,300 +2600,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-    </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -2907,10 +2614,6 @@
       <c r="O42" s="1"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -2924,10 +2627,6 @@
       <c r="O43" s="1"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -2957,76 +2656,8 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-    </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" s="4"/>
+      <c r="A47" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
